--- a/report.xlsx
+++ b/report.xlsx
@@ -20,10 +20,10 @@
     <t>Doanh Thu (triệu VND)</t>
   </si>
   <si>
-    <t>28/05/2025</t>
+    <t>16/06/2025</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>45.23</t>
   </si>
 </sst>
 </file>
